--- a/results/error_statistics.xlsx
+++ b/results/error_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14c26469619d807c/GitHub/MasterThesis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B658537464BAF1A4B536A4A0AA71318A088D33B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98BC82F5-56C5-4F4D-B677-577B02969294}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_2B658537464BAF1A4B536A4A0AA71318A088D33B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4D8723-AC99-42FB-8474-5ED3A1838C2F}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="43200" windowHeight="17145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="4980" windowWidth="43200" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Statistics" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -912,15 +914,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1458,7 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
